--- a/imageCreationExcel/back/111/111_0.xlsx
+++ b/imageCreationExcel/back/111/111_0.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8568160956827388</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.7018962005304743</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8.809510790843968</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_contrast0.857_sharpness0.702_equalization8.81.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -533,34 +533,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27.98856227388732</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.040447992566656</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6377731420818396</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_brightness27.989_contrast1.04_sharpness0.638.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.11147585733848</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.07370778318674566</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14.58091403614926</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_S_contrast1.111_sharpness0.074_equalization14.581.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.977887894191445</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6873305796498743</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.546794316846977</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_3_contrast0.978_sharpness0.687_equalization6.547.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14.57897752234514</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.118798146221573</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7525427171539386</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_brightness14.579_contrast1.119_sharpness0.753.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.037021658908635</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.6421839400426566</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6438234455862557</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_1_contrast1.037_gamma0.642_sharpness0.644.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.7967644409913924</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.2035585214488072</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.11257458428872</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_gamma0.797_sharpness0.204_equalization21.113.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16.69870571792316</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9077274491243236</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7845325523166841</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_E_brightness16.699_contrast0.908_sharpness0.785.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.095426072098433</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,22 +839,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.580304674671644</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.9424425191402777</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_C_contrast1.095_gamma0.58_sharpness0.942.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,16 +864,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.887320826017573</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8994794293796065</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.8386719829111098</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_9_contrast0.887_gamma0.899_sharpness0.839.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>29.8861578408709</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.009951954373217</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7108006554421614</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_brightness29.886_gamma1.01_sharpness0.711.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12.49981835907218</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5977784562723519</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.2020014064428465</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_S_brightness12.5_gamma0.598_sharpness0.202.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6718431220841774</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.3487798430711114</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>22.11411417358744</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_3_gamma0.672_sharpness0.349_equalization22.114.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3.773711070145361</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.8082120683367199</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.711786476561304</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_I_brightness3.774_gamma0.808_sharpness0.712.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.030240095364608</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.026917472279793</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>17.35369309558468</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_I_contrast1.03_gamma1.027_equalization17.354.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.86856166935874</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9398044940789254</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.9957445553510291</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_C_brightness13.869_contrast0.94_sharpness0.996.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.150769398164523</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9141450439426579</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.5089608736252831</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_9_contrast1.151_gamma0.914_sharpness0.509.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.070962777580494</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.060399022217752</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.602268022307593</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_8_brightness6.071_contrast1.06_gamma0.602.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.5784169825926651</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.01507477227411422</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15.21719631544928</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_9_gamma0.578_sharpness0.015_equalization15.217.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13.15791162966015</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8892092550620695</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8645834535348987</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_T_brightness13.158_contrast0.889_gamma0.865.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.850224147265796</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5819038246098874</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.4394653115719059</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_P_contrast0.85_gamma0.582_sharpness0.439.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7410419121577795</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.3053570456588034</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>14.52463557302118</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_I_gamma0.741_sharpness0.305_equalization14.525.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12.07206060986566</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.527537698403799</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.9213685592638996</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_9_brightness12.072_gamma0.528_sharpness0.921.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.46888793403516</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8047505605556203</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.6592349571017345</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_C_brightness12.469_gamma0.805_sharpness0.659.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.072060127444838</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.011736144073711</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>26.61837770471773</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_9_contrast1.072_gamma1.012_equalization26.618.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23.83934617390172</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.073859801683869</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.3523266960360638</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_S_brightness23.839_contrast1.074_sharpness0.352.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9.245624124271991</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8199608424080134</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.7953934284934283</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_P_brightness9.246_contrast0.82_sharpness0.795.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.937622702468709</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.06310235801555</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5765869631998659</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_I_brightness3.938_contrast1.063_sharpness0.577.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5.643387977248055</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,22 +1679,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.040398070425211</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.6241393812585232</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_0_brightness5.643_gamma1.04_sharpness0.624.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20.76114400827975</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.069867887743699</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.124894173401514</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_P_brightness20.761_contrast1.07_sharpness0.125.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5.055832252510633</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.894302551166404</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.8158960598141705</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_brightness5.056_contrast0.894_sharpness0.816.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7.782686681510997</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.8683308741896161</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.5623369410985395</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_C_brightness7.783_gamma0.868_sharpness0.562.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,39 +1830,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.083616458459491</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.3064302752997826</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>31.03983391188613</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_gamma1.084_sharpness0.306_equalization31.04.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9944266640366975</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.7557909101566225</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.6219137876231526</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_2_contrast0.994_gamma0.756_sharpness0.622.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.8426103770491387</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,22 +1931,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9650186735700157</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15.17374092118391</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_B_contrast0.843_gamma0.965_equalization15.174.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,24 +1956,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13.75645658714089</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.967390617430016</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1981,14 +1981,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.004954238072375335</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
         <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness13.756_contrast0.967_sharpness0.005.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9320338860474952</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9463936341374759</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>22.68153316780887</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_contrast0.932_sharpness0.946_equalization22.682.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.115252816129726</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.5818837377243251</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.4076999383374144</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_contrast1.115_gamma0.582_sharpness0.408.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,15 +2091,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.01679483294014</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.103413445711982</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.6022382115192391</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_0_brightness2.017_contrast1.103_sharpness0.602.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,39 +2124,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9559892299937032</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.5191499713157857</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6.810115680246585</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_contrast0.956_sharpness0.519_equalization6.81.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.8673624695553096</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.0561801019620095</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>17.40647193311129</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_S_contrast0.867_sharpness0.056_equalization17.406.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2.29882169242983</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.104633758805514</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.9681723159214675</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_brightness2.299_contrast1.105_gamma0.968.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.2778525532415921</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.095611424720697</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.041900283961633</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_3_brightness0.278_contrast1.096_sharpness0.042.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,15 +2301,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15.04758943180211</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.198403285544863</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6299116800742482</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_C_brightness15.048_contrast1.198_sharpness0.63.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.146750668606641</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6215571457615892</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>9.43201051939465</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_9_contrast1.147_gamma0.622_equalization9.432.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.114685907153203</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.8488579653144492</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>9.431529760802327</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_8_contrast1.115_sharpness0.849_equalization9.432.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>11.51444742933626</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9521194381048715</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.080141759365415</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_1_brightness11.514_contrast0.952_gamma1.08.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28.23249133901221</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.067223535625896</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.8350713740435429</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_brightness28.232_contrast1.067_gamma0.835.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
